--- a/biology/Zoologie/Alcolapia_alcalica/Alcolapia_alcalica.xlsx
+++ b/biology/Zoologie/Alcolapia_alcalica/Alcolapia_alcalica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcolapia alcalica ou parfois Cichlidé de soude[1] est une espèce de poisson qui fait partie de la famille des Cichlidae et de l'ordre des Cichliformes (anciennement Perciformes).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcolapia alcalica ou parfois Cichlidé de soude est une espèce de poisson qui fait partie de la famille des Cichlidae et de l'ordre des Cichliformes (anciennement Perciformes).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcolapia alcalica est une espèce de cichlidae endémique de l'Afrique dans le lac Natron, lac réputé aussi pour ses populations de flamants roses. L'espèce ce rencontre uniquement au Kenya et en Tanzanie. Elle a notamment été introduite dans le lac Nakuru[1] afin de la préserver ; classé en Danger d'Extinction et même proposé[2] au statut en Danger Critique d'extinction sur la liste rouge IUCN des espèces menacées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcolapia alcalica est une espèce de cichlidae endémique de l'Afrique dans le lac Natron, lac réputé aussi pour ses populations de flamants roses. L'espèce ce rencontre uniquement au Kenya et en Tanzanie. Elle a notamment été introduite dans le lac Nakuru afin de la préserver ; classé en Danger d'Extinction et même proposé au statut en Danger Critique d'extinction sur la liste rouge IUCN des espèces menacées.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Une eau adaptée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de cichlidae vit dans une eau dure et salée, se rapprochant de celle des poissons d'eau de mer. Les lacs salins de cette zone africaine sont également très chauds.
 </t>
